--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2875.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2875.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202633310808061</v>
+        <v>1.933575034141541</v>
       </c>
       <c r="B1">
-        <v>2.08276826090146</v>
+        <v>2.66878342628479</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.865574836730957</v>
       </c>
       <c r="D1">
-        <v>2.10100108835893</v>
+        <v>3.434018611907959</v>
       </c>
       <c r="E1">
-        <v>1.204764467510622</v>
+        <v>2.209897518157959</v>
       </c>
     </row>
   </sheetData>
